--- a/QuantStudio/Resource/TinySoftDBInfo.xlsx
+++ b/QuantStudio/Resource/TinySoftDBInfo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HST\QuantStudio\QuantStudio\Resource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\QuantStudio\QuantStudio\Resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5881884-B9EC-402A-AE4A-99DC08D09FE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="108" windowWidth="20472" windowHeight="9636" activeTab="1"/>
+    <workbookView xWindow="7095" yWindow="2325" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="2" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="201">
   <si>
     <t>TableName</t>
   </si>
@@ -718,13 +719,50 @@
   </si>
   <si>
     <t>最新价</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东户数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_InfoPublTable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Integer </t>
+  </si>
+  <si>
+    <t>截止日</t>
+  </si>
+  <si>
+    <t>公布日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Float </t>
+  </si>
+  <si>
+    <t xml:space="preserve">股东人数 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Char </t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>股东户数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnnDate</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1383,7 +1421,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1458,6 +1496,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1493,6 +1548,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1668,21 +1740,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="106.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -1696,7 +1769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1710,7 +1783,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1722,6 +1795,17 @@
       </c>
       <c r="D3" t="s">
         <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -1732,24 +1816,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G107"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1873,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1823,7 +1907,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1843,7 +1927,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1947,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1880,7 +1964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1897,7 +1981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1914,7 +1998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1931,7 +2015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1951,7 +2035,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1971,7 +2055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1991,7 +2075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -2011,7 +2095,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -2031,7 +2115,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -2051,7 +2135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -2071,7 +2155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -2091,7 +2175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -2111,7 +2195,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2215,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -2151,7 +2235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2171,7 +2255,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2191,7 +2275,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -2211,7 +2295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -2231,7 +2315,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +2335,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -2271,7 +2355,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2291,7 +2375,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -2311,7 +2395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2331,7 +2415,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -2351,7 +2435,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>7</v>
       </c>
@@ -2391,7 +2475,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -2411,7 +2495,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -2431,7 +2515,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -2451,7 +2535,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -2471,7 +2555,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -2491,7 +2575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -2511,7 +2595,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -2531,7 +2615,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -2551,7 +2635,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2655,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>7</v>
       </c>
@@ -2591,7 +2675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -2611,7 +2695,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -2631,7 +2715,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2651,7 +2735,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>7</v>
       </c>
@@ -2671,7 +2755,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -2691,7 +2775,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2795,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -2731,7 +2815,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -2751,7 +2835,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -2771,7 +2855,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2791,7 +2875,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -2811,7 +2895,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +2915,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2848,7 +2932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +2949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -2882,7 +2966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -2902,7 +2986,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -2919,7 +3003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -2936,7 +3020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -2956,7 +3040,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +3060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -2996,7 +3080,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3016,7 +3100,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -3036,7 +3120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -3056,7 +3140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -3076,7 +3160,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -3096,7 +3180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3200,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -3136,7 +3220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -3156,7 +3240,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -3176,7 +3260,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -3196,7 +3280,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -3216,7 +3300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3236,7 +3320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -3256,7 +3340,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -3276,7 +3360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -3296,7 +3380,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -3316,7 +3400,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -3336,7 +3420,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -3356,7 +3440,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -3376,7 +3460,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -3396,7 +3480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -3416,7 +3500,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -3436,7 +3520,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -3456,7 +3540,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -3476,7 +3560,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -3496,7 +3580,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -3516,7 +3600,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -3536,7 +3620,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -3556,7 +3640,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>4</v>
       </c>
@@ -3576,7 +3660,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3680,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>4</v>
       </c>
@@ -3616,7 +3700,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>4</v>
       </c>
@@ -3636,7 +3720,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>4</v>
       </c>
@@ -3656,7 +3740,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>4</v>
       </c>
@@ -3676,7 +3760,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>4</v>
       </c>
@@ -3696,7 +3780,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>4</v>
       </c>
@@ -3716,7 +3800,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +3820,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>4</v>
       </c>
@@ -3756,7 +3840,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -3776,7 +3860,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>4</v>
       </c>
@@ -3796,7 +3880,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>4</v>
       </c>
@@ -3816,7 +3900,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>4</v>
       </c>
@@ -3836,7 +3920,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>4</v>
       </c>
@@ -3856,9 +3940,77 @@
         <v>179</v>
       </c>
     </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>199</v>
+      </c>
+      <c r="B108" t="s">
+        <v>193</v>
+      </c>
+      <c r="C108">
+        <v>28000</v>
+      </c>
+      <c r="D108" t="s">
+        <v>192</v>
+      </c>
+      <c r="E108" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>199</v>
+      </c>
+      <c r="B109" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109">
+        <v>28001</v>
+      </c>
+      <c r="D109" t="s">
+        <v>192</v>
+      </c>
+      <c r="E109" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>199</v>
+      </c>
+      <c r="B110" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110">
+        <v>28002</v>
+      </c>
+      <c r="D110" t="s">
+        <v>195</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>199</v>
+      </c>
+      <c r="B111" t="s">
+        <v>198</v>
+      </c>
+      <c r="C111">
+        <v>28003</v>
+      </c>
+      <c r="D111" t="s">
+        <v>197</v>
+      </c>
+      <c r="E111" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D145">
-    <sortState ref="A2:E915">
+  <autoFilter ref="A1:D145" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E915">
       <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>

--- a/QuantStudio/Resource/TinySoftDBInfo.xlsx
+++ b/QuantStudio/Resource/TinySoftDBInfo.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\QuantStudio\QuantStudio\Resource\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC118FB-94E2-4EBD-9A2F-C6F9921CEB8F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="7095" yWindow="2325" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInfo" sheetId="2" r:id="rId1"/>
     <sheet name="FactorInfo" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$D$146</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FactorInfo!$A$1:$E$146</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="200">
   <si>
     <t>TableName</t>
   </si>
@@ -590,29 +596,49 @@
     <t>AnnDate</t>
   </si>
   <si>
-    <t xml:space="preserve">股东人数 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Float </t>
   </si>
   <si>
+    <t xml:space="preserve">Char </t>
+  </si>
+  <si>
+    <t>股东户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DBFieldCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>股东人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公布日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stockid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Char </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,345 +647,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -967,324 +678,32 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1571,19 +990,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="18.375" customWidth="1"/>
@@ -1591,7 +1010,7 @@
     <col min="4" max="4" width="106.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1605,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1615,7 +1034,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1629,7 +1048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1643,7 +1062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1655,32 +1074,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G112"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G116" sqref="G116"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.375" customWidth="1"/>
     <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="3" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1690,20 +1108,23 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1713,14 +1134,14 @@
       <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1730,14 +1151,14 @@
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1747,14 +1168,14 @@
       <c r="C4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1764,17 +1185,17 @@
       <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1784,17 +1205,17 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1804,14 +1225,14 @@
       <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1821,14 +1242,14 @@
       <c r="C8" t="s">
         <v>42</v>
       </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1838,14 +1259,14 @@
       <c r="C9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1855,14 +1276,14 @@
       <c r="C10" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1872,17 +1293,17 @@
       <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1892,17 +1313,17 @@
       <c r="C12" t="s">
         <v>51</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
       <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1912,17 +1333,17 @@
       <c r="C13" t="s">
         <v>54</v>
       </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
       <c r="E13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1932,17 +1353,17 @@
       <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
       <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1952,17 +1373,17 @@
       <c r="C15" t="s">
         <v>60</v>
       </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
       <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1972,17 +1393,17 @@
       <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
       <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1992,17 +1413,17 @@
       <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
       <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -2012,17 +1433,17 @@
       <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
       <c r="E18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -2032,17 +1453,17 @@
       <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
       <c r="E19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -2052,17 +1473,17 @@
       <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
       <c r="E20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2072,17 +1493,17 @@
       <c r="C21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
       <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2092,17 +1513,17 @@
       <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
       <c r="E22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -2112,17 +1533,17 @@
       <c r="C23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
       <c r="E23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -2132,17 +1553,17 @@
       <c r="C24" t="s">
         <v>85</v>
       </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
       <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -2152,17 +1573,17 @@
       <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F25" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -2172,17 +1593,17 @@
       <c r="C26" t="s">
         <v>92</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>89</v>
       </c>
-      <c r="E26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2192,17 +1613,17 @@
       <c r="C27" t="s">
         <v>95</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>89</v>
       </c>
-      <c r="E27" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -2212,17 +1633,17 @@
       <c r="C28" t="s">
         <v>98</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>89</v>
       </c>
-      <c r="E28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2232,17 +1653,17 @@
       <c r="C29" t="s">
         <v>101</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>89</v>
       </c>
-      <c r="E29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -2252,17 +1673,17 @@
       <c r="C30" t="s">
         <v>104</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>89</v>
       </c>
-      <c r="E30" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -2272,17 +1693,17 @@
       <c r="C31" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>89</v>
       </c>
-      <c r="E31" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -2292,17 +1713,17 @@
       <c r="C32" t="s">
         <v>110</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>89</v>
       </c>
-      <c r="E32" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -2312,17 +1733,17 @@
       <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>89</v>
       </c>
-      <c r="E33" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -2332,17 +1753,17 @@
       <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
       <c r="E34" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -2352,17 +1773,17 @@
       <c r="C35" t="s">
         <v>119</v>
       </c>
-      <c r="D35" t="s">
-        <v>34</v>
-      </c>
       <c r="E35" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -2372,17 +1793,17 @@
       <c r="C36" t="s">
         <v>122</v>
       </c>
-      <c r="D36" t="s">
-        <v>34</v>
-      </c>
       <c r="E36" t="s">
-        <v>31</v>
-      </c>
-      <c r="G36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -2392,17 +1813,17 @@
       <c r="C37" t="s">
         <v>125</v>
       </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
       <c r="E37" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H37" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -2412,17 +1833,17 @@
       <c r="C38" t="s">
         <v>128</v>
       </c>
-      <c r="D38" t="s">
-        <v>34</v>
-      </c>
       <c r="E38" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -2432,17 +1853,17 @@
       <c r="C39" t="s">
         <v>131</v>
       </c>
-      <c r="D39" t="s">
-        <v>34</v>
-      </c>
       <c r="E39" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -2452,17 +1873,17 @@
       <c r="C40" t="s">
         <v>134</v>
       </c>
-      <c r="D40" t="s">
-        <v>34</v>
-      </c>
       <c r="E40" t="s">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -2472,17 +1893,17 @@
       <c r="C41" t="s">
         <v>137</v>
       </c>
-      <c r="D41" t="s">
-        <v>34</v>
-      </c>
       <c r="E41" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -2492,17 +1913,17 @@
       <c r="C42" t="s">
         <v>140</v>
       </c>
-      <c r="D42" t="s">
-        <v>34</v>
-      </c>
       <c r="E42" t="s">
-        <v>31</v>
-      </c>
-      <c r="G42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -2512,17 +1933,17 @@
       <c r="C43" t="s">
         <v>143</v>
       </c>
-      <c r="D43" t="s">
-        <v>34</v>
-      </c>
       <c r="E43" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2532,17 +1953,17 @@
       <c r="C44" t="s">
         <v>146</v>
       </c>
-      <c r="D44" t="s">
-        <v>34</v>
-      </c>
       <c r="E44" t="s">
-        <v>31</v>
-      </c>
-      <c r="G44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2552,17 +1973,17 @@
       <c r="C45" t="s">
         <v>149</v>
       </c>
-      <c r="D45" t="s">
-        <v>34</v>
-      </c>
       <c r="E45" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -2572,17 +1993,17 @@
       <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="D46" t="s">
-        <v>34</v>
-      </c>
       <c r="E46" t="s">
-        <v>31</v>
-      </c>
-      <c r="G46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2592,17 +2013,17 @@
       <c r="C47" t="s">
         <v>155</v>
       </c>
-      <c r="D47" t="s">
-        <v>34</v>
-      </c>
       <c r="E47" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -2612,17 +2033,17 @@
       <c r="C48" t="s">
         <v>158</v>
       </c>
-      <c r="D48" t="s">
-        <v>34</v>
-      </c>
       <c r="E48" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -2632,17 +2053,17 @@
       <c r="C49" t="s">
         <v>161</v>
       </c>
-      <c r="D49" t="s">
-        <v>34</v>
-      </c>
       <c r="E49" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -2652,17 +2073,17 @@
       <c r="C50" t="s">
         <v>164</v>
       </c>
-      <c r="D50" t="s">
-        <v>34</v>
-      </c>
       <c r="E50" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -2672,17 +2093,17 @@
       <c r="C51" t="s">
         <v>167</v>
       </c>
-      <c r="D51" t="s">
-        <v>34</v>
-      </c>
       <c r="E51" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -2692,17 +2113,17 @@
       <c r="C52" t="s">
         <v>170</v>
       </c>
-      <c r="D52" t="s">
-        <v>34</v>
-      </c>
       <c r="E52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -2712,17 +2133,17 @@
       <c r="C53" t="s">
         <v>173</v>
       </c>
-      <c r="D53" t="s">
-        <v>34</v>
-      </c>
       <c r="E53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -2732,17 +2153,17 @@
       <c r="C54" t="s">
         <v>176</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>89</v>
       </c>
-      <c r="E54" t="s">
-        <v>31</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="F54" t="s">
+        <v>31</v>
+      </c>
+      <c r="H54" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -2752,17 +2173,17 @@
       <c r="C55" t="s">
         <v>179</v>
       </c>
-      <c r="D55" t="s">
-        <v>34</v>
-      </c>
       <c r="E55" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2772,14 +2193,14 @@
       <c r="C56" t="s">
         <v>22</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>23</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2789,14 +2210,14 @@
       <c r="C57" t="s">
         <v>26</v>
       </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
         <v>27</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2806,14 +2227,14 @@
       <c r="C58" t="s">
         <v>30</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
         <v>23</v>
       </c>
-      <c r="E58" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="F58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2823,17 +2244,17 @@
       <c r="C59" t="s">
         <v>33</v>
       </c>
-      <c r="D59" t="s">
-        <v>34</v>
-      </c>
       <c r="E59" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="H59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2843,14 +2264,14 @@
       <c r="C60" t="s">
         <v>44</v>
       </c>
-      <c r="D60" t="s">
-        <v>34</v>
-      </c>
       <c r="E60" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>34</v>
+      </c>
+      <c r="F60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2860,14 +2281,14 @@
       <c r="C61" t="s">
         <v>46</v>
       </c>
-      <c r="D61" t="s">
-        <v>34</v>
-      </c>
       <c r="E61" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="F61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2877,17 +2298,17 @@
       <c r="C62" t="s">
         <v>48</v>
       </c>
-      <c r="D62" t="s">
-        <v>34</v>
-      </c>
       <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>31</v>
+      </c>
+      <c r="H62" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2897,17 +2318,17 @@
       <c r="C63" t="s">
         <v>51</v>
       </c>
-      <c r="D63" t="s">
-        <v>34</v>
-      </c>
       <c r="E63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2917,17 +2338,17 @@
       <c r="C64" t="s">
         <v>54</v>
       </c>
-      <c r="D64" t="s">
-        <v>34</v>
-      </c>
       <c r="E64" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2937,17 +2358,17 @@
       <c r="C65" t="s">
         <v>57</v>
       </c>
-      <c r="D65" t="s">
-        <v>34</v>
-      </c>
       <c r="E65" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H65" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2957,17 +2378,17 @@
       <c r="C66" t="s">
         <v>60</v>
       </c>
-      <c r="D66" t="s">
-        <v>34</v>
-      </c>
       <c r="E66" t="s">
-        <v>31</v>
-      </c>
-      <c r="G66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -2977,17 +2398,17 @@
       <c r="C67" t="s">
         <v>62</v>
       </c>
-      <c r="D67" t="s">
-        <v>34</v>
-      </c>
       <c r="E67" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -2997,17 +2418,17 @@
       <c r="C68" t="s">
         <v>65</v>
       </c>
-      <c r="D68" t="s">
-        <v>34</v>
-      </c>
       <c r="E68" t="s">
-        <v>31</v>
-      </c>
-      <c r="G68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" t="s">
+        <v>31</v>
+      </c>
+      <c r="H68" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3017,17 +2438,17 @@
       <c r="C69" t="s">
         <v>68</v>
       </c>
-      <c r="D69" t="s">
-        <v>34</v>
-      </c>
       <c r="E69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
+        <v>31</v>
+      </c>
+      <c r="H69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3037,17 +2458,17 @@
       <c r="C70" t="s">
         <v>71</v>
       </c>
-      <c r="D70" t="s">
-        <v>34</v>
-      </c>
       <c r="E70" t="s">
-        <v>31</v>
-      </c>
-      <c r="G70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70" t="s">
+        <v>31</v>
+      </c>
+      <c r="H70" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3057,17 +2478,17 @@
       <c r="C71" t="s">
         <v>74</v>
       </c>
-      <c r="D71" t="s">
-        <v>34</v>
-      </c>
       <c r="E71" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71" t="s">
+        <v>31</v>
+      </c>
+      <c r="H71" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3077,17 +2498,17 @@
       <c r="C72" t="s">
         <v>76</v>
       </c>
-      <c r="D72" t="s">
-        <v>34</v>
-      </c>
       <c r="E72" t="s">
-        <v>31</v>
-      </c>
-      <c r="G72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3097,17 +2518,17 @@
       <c r="C73" t="s">
         <v>79</v>
       </c>
-      <c r="D73" t="s">
-        <v>34</v>
-      </c>
       <c r="E73" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3117,17 +2538,17 @@
       <c r="C74" t="s">
         <v>82</v>
       </c>
-      <c r="D74" t="s">
-        <v>34</v>
-      </c>
       <c r="E74" t="s">
-        <v>31</v>
-      </c>
-      <c r="G74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" t="s">
+        <v>31</v>
+      </c>
+      <c r="H74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3137,17 +2558,17 @@
       <c r="C75" t="s">
         <v>85</v>
       </c>
-      <c r="D75" t="s">
-        <v>34</v>
-      </c>
       <c r="E75" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75" t="s">
+        <v>31</v>
+      </c>
+      <c r="H75" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3157,17 +2578,17 @@
       <c r="C76" t="s">
         <v>88</v>
       </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
         <v>89</v>
       </c>
-      <c r="E76" t="s">
-        <v>31</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F76" t="s">
+        <v>31</v>
+      </c>
+      <c r="H76" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3177,17 +2598,17 @@
       <c r="C77" t="s">
         <v>92</v>
       </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
         <v>89</v>
       </c>
-      <c r="E77" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F77" t="s">
+        <v>31</v>
+      </c>
+      <c r="H77" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3197,17 +2618,17 @@
       <c r="C78" t="s">
         <v>95</v>
       </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
         <v>89</v>
       </c>
-      <c r="E78" t="s">
-        <v>31</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="F78" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3217,17 +2638,17 @@
       <c r="C79" t="s">
         <v>98</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>89</v>
       </c>
-      <c r="E79" t="s">
-        <v>31</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3237,17 +2658,17 @@
       <c r="C80" t="s">
         <v>101</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>89</v>
       </c>
-      <c r="E80" t="s">
-        <v>31</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3257,17 +2678,17 @@
       <c r="C81" t="s">
         <v>104</v>
       </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
         <v>89</v>
       </c>
-      <c r="E81" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F81" t="s">
+        <v>31</v>
+      </c>
+      <c r="H81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3277,17 +2698,17 @@
       <c r="C82" t="s">
         <v>107</v>
       </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
         <v>89</v>
       </c>
-      <c r="E82" t="s">
-        <v>31</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F82" t="s">
+        <v>31</v>
+      </c>
+      <c r="H82" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3297,17 +2718,17 @@
       <c r="C83" t="s">
         <v>110</v>
       </c>
-      <c r="D83" t="s">
+      <c r="E83" t="s">
         <v>89</v>
       </c>
-      <c r="E83" t="s">
-        <v>31</v>
-      </c>
-      <c r="G83" t="s">
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3317,17 +2738,17 @@
       <c r="C84" t="s">
         <v>113</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>89</v>
       </c>
-      <c r="E84" t="s">
-        <v>31</v>
-      </c>
-      <c r="G84" t="s">
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3337,17 +2758,17 @@
       <c r="C85" t="s">
         <v>116</v>
       </c>
-      <c r="D85" t="s">
-        <v>34</v>
-      </c>
       <c r="E85" t="s">
-        <v>31</v>
-      </c>
-      <c r="G85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3357,17 +2778,17 @@
       <c r="C86" t="s">
         <v>119</v>
       </c>
-      <c r="D86" t="s">
-        <v>34</v>
-      </c>
       <c r="E86" t="s">
-        <v>31</v>
-      </c>
-      <c r="G86" t="s">
+        <v>34</v>
+      </c>
+      <c r="F86" t="s">
+        <v>31</v>
+      </c>
+      <c r="H86" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3377,17 +2798,17 @@
       <c r="C87" t="s">
         <v>122</v>
       </c>
-      <c r="D87" t="s">
-        <v>34</v>
-      </c>
       <c r="E87" t="s">
-        <v>31</v>
-      </c>
-      <c r="G87" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3397,17 +2818,17 @@
       <c r="C88" t="s">
         <v>125</v>
       </c>
-      <c r="D88" t="s">
-        <v>34</v>
-      </c>
       <c r="E88" t="s">
-        <v>31</v>
-      </c>
-      <c r="G88" t="s">
+        <v>34</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3417,17 +2838,17 @@
       <c r="C89" t="s">
         <v>182</v>
       </c>
-      <c r="D89" t="s">
+      <c r="E89" t="s">
         <v>89</v>
       </c>
-      <c r="E89" t="s">
-        <v>31</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="H89" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3437,17 +2858,17 @@
       <c r="C90" t="s">
         <v>128</v>
       </c>
-      <c r="D90" t="s">
-        <v>34</v>
-      </c>
       <c r="E90" t="s">
-        <v>31</v>
-      </c>
-      <c r="G90" t="s">
+        <v>34</v>
+      </c>
+      <c r="F90" t="s">
+        <v>31</v>
+      </c>
+      <c r="H90" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3457,17 +2878,17 @@
       <c r="C91" t="s">
         <v>131</v>
       </c>
-      <c r="D91" t="s">
-        <v>34</v>
-      </c>
       <c r="E91" t="s">
-        <v>31</v>
-      </c>
-      <c r="G91" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3477,17 +2898,17 @@
       <c r="C92" t="s">
         <v>134</v>
       </c>
-      <c r="D92" t="s">
-        <v>34</v>
-      </c>
       <c r="E92" t="s">
-        <v>31</v>
-      </c>
-      <c r="G92" t="s">
+        <v>34</v>
+      </c>
+      <c r="F92" t="s">
+        <v>31</v>
+      </c>
+      <c r="H92" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3497,17 +2918,17 @@
       <c r="C93" t="s">
         <v>137</v>
       </c>
-      <c r="D93" t="s">
-        <v>34</v>
-      </c>
       <c r="E93" t="s">
-        <v>31</v>
-      </c>
-      <c r="G93" t="s">
+        <v>34</v>
+      </c>
+      <c r="F93" t="s">
+        <v>31</v>
+      </c>
+      <c r="H93" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3517,17 +2938,17 @@
       <c r="C94" t="s">
         <v>140</v>
       </c>
-      <c r="D94" t="s">
-        <v>34</v>
-      </c>
       <c r="E94" t="s">
-        <v>31</v>
-      </c>
-      <c r="G94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>31</v>
+      </c>
+      <c r="H94" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3537,17 +2958,17 @@
       <c r="C95" t="s">
         <v>143</v>
       </c>
-      <c r="D95" t="s">
-        <v>34</v>
-      </c>
       <c r="E95" t="s">
-        <v>31</v>
-      </c>
-      <c r="G95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3557,17 +2978,17 @@
       <c r="C96" t="s">
         <v>146</v>
       </c>
-      <c r="D96" t="s">
-        <v>34</v>
-      </c>
       <c r="E96" t="s">
-        <v>31</v>
-      </c>
-      <c r="G96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3577,17 +2998,17 @@
       <c r="C97" t="s">
         <v>149</v>
       </c>
-      <c r="D97" t="s">
-        <v>34</v>
-      </c>
       <c r="E97" t="s">
-        <v>31</v>
-      </c>
-      <c r="G97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>31</v>
+      </c>
+      <c r="H97" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>10</v>
       </c>
@@ -3597,17 +3018,17 @@
       <c r="C98" t="s">
         <v>152</v>
       </c>
-      <c r="D98" t="s">
-        <v>34</v>
-      </c>
       <c r="E98" t="s">
-        <v>31</v>
-      </c>
-      <c r="G98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
+        <v>31</v>
+      </c>
+      <c r="H98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3617,17 +3038,17 @@
       <c r="C99" t="s">
         <v>155</v>
       </c>
-      <c r="D99" t="s">
-        <v>34</v>
-      </c>
       <c r="E99" t="s">
-        <v>31</v>
-      </c>
-      <c r="G99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
+        <v>31</v>
+      </c>
+      <c r="H99" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3637,17 +3058,17 @@
       <c r="C100" t="s">
         <v>158</v>
       </c>
-      <c r="D100" t="s">
-        <v>34</v>
-      </c>
       <c r="E100" t="s">
-        <v>31</v>
-      </c>
-      <c r="G100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
+        <v>31</v>
+      </c>
+      <c r="H100" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3657,17 +3078,17 @@
       <c r="C101" t="s">
         <v>161</v>
       </c>
-      <c r="D101" t="s">
-        <v>34</v>
-      </c>
       <c r="E101" t="s">
-        <v>31</v>
-      </c>
-      <c r="G101" t="s">
+        <v>34</v>
+      </c>
+      <c r="F101" t="s">
+        <v>31</v>
+      </c>
+      <c r="H101" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3677,17 +3098,17 @@
       <c r="C102" t="s">
         <v>164</v>
       </c>
-      <c r="D102" t="s">
-        <v>34</v>
-      </c>
       <c r="E102" t="s">
-        <v>31</v>
-      </c>
-      <c r="G102" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" t="s">
+        <v>31</v>
+      </c>
+      <c r="H102" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -3697,17 +3118,17 @@
       <c r="C103" t="s">
         <v>167</v>
       </c>
-      <c r="D103" t="s">
-        <v>34</v>
-      </c>
       <c r="E103" t="s">
-        <v>31</v>
-      </c>
-      <c r="G103" t="s">
+        <v>34</v>
+      </c>
+      <c r="F103" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -3717,17 +3138,17 @@
       <c r="C104" t="s">
         <v>170</v>
       </c>
-      <c r="D104" t="s">
-        <v>34</v>
-      </c>
       <c r="E104" t="s">
-        <v>31</v>
-      </c>
-      <c r="G104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" t="s">
+        <v>31</v>
+      </c>
+      <c r="H104" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -3737,17 +3158,17 @@
       <c r="C105" t="s">
         <v>173</v>
       </c>
-      <c r="D105" t="s">
-        <v>34</v>
-      </c>
       <c r="E105" t="s">
-        <v>31</v>
-      </c>
-      <c r="G105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -3757,17 +3178,17 @@
       <c r="C106" t="s">
         <v>176</v>
       </c>
-      <c r="D106" t="s">
+      <c r="E106" t="s">
         <v>89</v>
       </c>
-      <c r="E106" t="s">
-        <v>31</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="F106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -3777,110 +3198,120 @@
       <c r="C107" t="s">
         <v>179</v>
       </c>
-      <c r="D107" t="s">
-        <v>34</v>
-      </c>
       <c r="E107" t="s">
-        <v>31</v>
-      </c>
-      <c r="G107" t="s">
+        <v>34</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" t="s">
-        <v>14</v>
-      </c>
-      <c r="B108" t="s">
-        <v>184</v>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A108" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="C108" t="s">
         <v>184</v>
       </c>
-      <c r="D108" t="s">
+      <c r="E108" t="s">
         <v>185</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>14</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C109" t="s">
         <v>186</v>
       </c>
-      <c r="C109">
+      <c r="D109">
         <v>28000</v>
       </c>
-      <c r="D109" t="s">
+      <c r="E109" t="s">
         <v>187</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>14</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C110" t="s">
         <v>188</v>
       </c>
-      <c r="C110">
+      <c r="D110">
         <v>28001</v>
       </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
         <v>187</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>14</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D111">
+        <v>28002</v>
+      </c>
+      <c r="E111" t="s">
         <v>190</v>
       </c>
-      <c r="C111">
-        <v>28002</v>
-      </c>
-      <c r="D111" t="s">
-        <v>191</v>
-      </c>
-      <c r="E111" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>14</v>
       </c>
-      <c r="B112" t="s">
-        <v>192</v>
-      </c>
-      <c r="C112">
+      <c r="B112" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D112">
         <v>28003</v>
       </c>
-      <c r="D112" t="s">
-        <v>193</v>
-      </c>
       <c r="E112" t="s">
+        <v>191</v>
+      </c>
+      <c r="F112" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D146">
-    <sortState ref="A1:D146">
-      <sortCondition ref="A1"/>
-    </sortState>
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:E146" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>